--- a/T04_M2_D2_MDM_Metadata_files/T04_M2_D2_Dim_Allocation_Date_metadata.xlsx
+++ b/T04_M2_D2_MDM_Metadata_files/T04_M2_D2_Dim_Allocation_Date_metadata.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SEIS732\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\T04_M2_D2_MDM_Metadata_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5CF6450-B02E-450A-B1B9-836EA763CE21}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5016FAB-8BEE-41B1-B898-243518C65C2D}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6940" xr2:uid="{4B7CB9F8-0F69-4A60-AE9B-3CE4E5C4380E}"/>
   </bookViews>
@@ -111,9 +111,6 @@
     <t>Allocation_Holiday_Of_Day</t>
   </si>
   <si>
-    <t>Allocation_KEY</t>
-  </si>
-  <si>
     <t>DATE_Dimension</t>
   </si>
   <si>
@@ -181,6 +178,9 @@
   </si>
   <si>
     <t>The Vehicle allocation Year in CCYY format</t>
+  </si>
+  <si>
+    <t>Allocation_KEY    &lt;PK&gt;</t>
   </si>
 </sst>
 </file>
@@ -677,7 +677,7 @@
   <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -696,13 +696,13 @@
     </row>
     <row r="2" spans="1:3" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="C2" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -713,7 +713,7 @@
         <v>1997</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -724,7 +724,7 @@
         <v>1000</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -735,7 +735,7 @@
         <v>0</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -746,7 +746,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -757,7 +757,7 @@
         <v>2</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -768,7 +768,7 @@
         <v>3</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -779,7 +779,7 @@
         <v>1</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -790,7 +790,7 @@
         <v>1</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -801,7 +801,7 @@
         <v>3000</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -812,7 +812,7 @@
         <v>1</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -823,7 +823,7 @@
         <v>4</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -834,18 +834,18 @@
         <v>5</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="9" t="s">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="B15" s="5">
         <v>1</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -856,7 +856,7 @@
         <v>1</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -867,7 +867,7 @@
         <v>1</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -878,7 +878,7 @@
         <v>6</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -889,7 +889,7 @@
         <v>1</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -900,7 +900,7 @@
         <v>7</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -911,7 +911,7 @@
         <v>8</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -922,7 +922,7 @@
         <v>35431</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
